--- a/datasets/backtest/simu.xlsx
+++ b/datasets/backtest/simu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trades\pairs_trading_b3\datasets\backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A86939-37A1-489B-B39A-5B92622475F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465AE49-3954-4C4D-94FF-1457A1232719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="2100" windowWidth="11805" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="-120" windowWidth="11805" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>BBSE3</t>
   </si>
@@ -76,6 +77,72 @@
   </si>
   <si>
     <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -85,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +181,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,7 +239,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -161,13 +248,53 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -522,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +666,7 @@
     <col min="9" max="10" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,473 +685,1284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B19">
         <v>25.20999908447266</v>
       </c>
-      <c r="C3">
+      <c r="C19">
         <v>9.2490749359130859</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D11" si="0">D4</f>
-        <v>100</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E11" si="1">B3*D3</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:D27" si="0">D20</f>
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:E27" si="1">B19*D19</f>
         <v>2520.9999084472661</v>
       </c>
-      <c r="F3" s="5">
-        <f>E$13-E3</f>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:F28" si="2">E$29-E19</f>
         <v>626.00002288818268</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G11" si="2">G4</f>
-        <v>100</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H11" si="3">C3*G3</f>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19:G27" si="3">G20</f>
+        <v>100</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19:H27" si="4">C19*G19</f>
         <v>924.90749359130859</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3-H$13</f>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:I28" si="5">H19-H$29</f>
         <v>-257.44085311889648</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J11" si="4">F3+I3</f>
+      <c r="J19" s="3">
+        <f t="shared" ref="J19:J27" si="6">F19+I19</f>
         <v>368.5591697692862</v>
       </c>
-      <c r="K3" s="4">
-        <f>J3/H$13</f>
+      <c r="K19" s="4">
+        <f t="shared" ref="K19:K28" si="7">J19/H$29</f>
         <v>0.31171792204452625</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B20">
         <v>27.780000686645511</v>
       </c>
-      <c r="C4">
+      <c r="C20">
         <v>10.376523017883301</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>2778.0000686645512</v>
       </c>
-      <c r="F4" s="5">
-        <f>E$13-E4</f>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
         <v>368.99986267089753</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="4"/>
         <v>1037.6523017883301</v>
       </c>
-      <c r="I4" s="5">
-        <f>H4-H$13</f>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
         <v>-144.696044921875</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="4"/>
+      <c r="J20" s="3">
+        <f t="shared" si="6"/>
         <v>224.30381774902253</v>
       </c>
-      <c r="K4" s="4">
-        <f>J4/H$13</f>
+      <c r="K20" s="4">
+        <f t="shared" si="7"/>
         <v>0.18971043379316338</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B21">
         <v>29</v>
       </c>
-      <c r="C5">
+      <c r="C21">
         <v>11.0350341796875</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="F5" s="5">
-        <f>E$13-E5</f>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
         <v>246.99993133544876</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="4"/>
         <v>1103.50341796875</v>
       </c>
-      <c r="I5" s="5">
-        <f>H5-H$13</f>
+      <c r="I21" s="5">
+        <f t="shared" si="5"/>
         <v>-78.844928741455078</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="4"/>
+      <c r="J21" s="3">
+        <f t="shared" si="6"/>
         <v>168.15500259399369</v>
       </c>
-      <c r="K5" s="4">
-        <f>J5/H$13</f>
+      <c r="K21" s="4">
+        <f t="shared" si="7"/>
         <v>0.14222120161276688</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B22">
         <v>28.389999389648441</v>
       </c>
-      <c r="C6">
+      <c r="C22">
         <v>10.80555248260498</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>2838.9999389648442</v>
       </c>
-      <c r="F6" s="5">
-        <f>E$13-E6</f>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
         <v>307.99999237060456</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="4"/>
         <v>1080.555248260498</v>
       </c>
-      <c r="I6" s="5">
-        <f>H6-H$13</f>
+      <c r="I22" s="5">
+        <f t="shared" si="5"/>
         <v>-101.79309844970703</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="4"/>
+      <c r="J22" s="3">
+        <f t="shared" si="6"/>
         <v>206.20689392089753</v>
       </c>
-      <c r="K6" s="4">
-        <f>J6/H$13</f>
+      <c r="K22" s="4">
+        <f t="shared" si="7"/>
         <v>0.17440451834237569</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B23">
         <v>30.479999542236332</v>
       </c>
-      <c r="C7">
+      <c r="C23">
         <v>11.53390502929688</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>3047.9999542236333</v>
       </c>
-      <c r="F7" s="5">
-        <f>E$13-E7</f>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
         <v>98.999977111815497</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
         <v>1153.390502929688</v>
       </c>
-      <c r="I7" s="5">
-        <f>H7-H$13</f>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
         <v>-28.957843780517123</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" si="4"/>
+      <c r="J23" s="3">
+        <f t="shared" si="6"/>
         <v>70.042133331298373</v>
       </c>
-      <c r="K7" s="4">
-        <f>J7/H$13</f>
+      <c r="K23" s="4">
+        <f t="shared" si="7"/>
         <v>5.923984545348697E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B24">
         <v>30.44000053405761</v>
       </c>
-      <c r="C8">
+      <c r="C24">
         <v>11.80329513549805</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>3044.0000534057608</v>
       </c>
-      <c r="F8" s="5">
-        <f>E$13-E8</f>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
         <v>102.99987792968795</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
         <v>1180.3295135498051</v>
       </c>
-      <c r="I8" s="5">
-        <f>H8-H$13</f>
+      <c r="I24" s="5">
+        <f t="shared" si="5"/>
         <v>-2.0188331603999359</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="4"/>
+      <c r="J24" s="3">
+        <f t="shared" si="6"/>
         <v>100.98104476928802</v>
       </c>
-      <c r="K8" s="4">
-        <f>J8/H$13</f>
+      <c r="K24" s="4">
+        <f t="shared" si="7"/>
         <v>8.5407185665933513E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B25">
         <v>31.04000091552734</v>
       </c>
-      <c r="C9">
+      <c r="C25">
         <v>12.17246055603027</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>3104.0000915527339</v>
       </c>
-      <c r="F9" s="5">
-        <f>E$13-E9</f>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
         <v>42.999839782714844</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="4"/>
         <v>1217.2460556030269</v>
       </c>
-      <c r="I9" s="5">
-        <f>H9-H$13</f>
+      <c r="I25" s="5">
+        <f t="shared" si="5"/>
         <v>34.897708892821811</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="4"/>
+      <c r="J25" s="3">
+        <f t="shared" si="6"/>
         <v>77.897548675536655</v>
       </c>
-      <c r="K9" s="4">
-        <f>J9/H$13</f>
+      <c r="K25" s="4">
+        <f t="shared" si="7"/>
         <v>6.5883754895315491E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B26">
         <v>30.629999160766602</v>
       </c>
-      <c r="C10">
+      <c r="C26">
         <v>12.10261821746826</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>3062.9999160766602</v>
       </c>
-      <c r="F10" s="5">
-        <f>E$13-E10</f>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
         <v>84.000015258788608</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="4"/>
         <v>1210.2618217468259</v>
       </c>
-      <c r="I10" s="5">
-        <f>H10-H$13</f>
+      <c r="I26" s="5">
+        <f t="shared" si="5"/>
         <v>27.913475036620866</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="4"/>
+      <c r="J26" s="3">
+        <f t="shared" si="6"/>
         <v>111.91349029540947</v>
       </c>
-      <c r="K10" s="4">
-        <f>J10/H$13</f>
+      <c r="K26" s="4">
+        <f t="shared" si="7"/>
         <v>9.4653568558538861E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B27">
         <v>31.60000038146973</v>
       </c>
-      <c r="C11">
+      <c r="C27">
         <v>12.282212257385259</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>3160.0000381469731</v>
       </c>
-      <c r="F11" s="5">
-        <f>E$13-E11</f>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
         <v>-13.000106811524347</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="4"/>
+        <v>1228.2212257385258</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="5"/>
+        <v>45.872879028320767</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="6"/>
+        <v>32.87277221679642</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7802950211976381E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>31.85000038146973</v>
+      </c>
+      <c r="C28">
+        <v>11.962934494018549</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D29</f>
+        <v>100</v>
+      </c>
+      <c r="E28" s="5">
+        <f>B28*D28</f>
+        <v>3185.0000381469731</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>1228.2212257385258</v>
-      </c>
-      <c r="I11" s="5">
-        <f>H11-H$13</f>
-        <v>45.872879028320767</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="4"/>
-        <v>32.87277221679642</v>
-      </c>
-      <c r="K11" s="4">
-        <f>J11/H$13</f>
-        <v>2.7802950211976381E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>31.85000038146973</v>
-      </c>
-      <c r="C12">
-        <v>11.962934494018549</v>
-      </c>
-      <c r="D12" s="5">
-        <f>D13</f>
-        <v>100</v>
-      </c>
-      <c r="E12" s="5">
-        <f>B12*D12</f>
-        <v>3185.0000381469731</v>
-      </c>
-      <c r="F12" s="5">
-        <f>E$13-E12</f>
         <v>-38.000106811524347</v>
       </c>
-      <c r="G12" s="5">
-        <f>G13</f>
-        <v>100</v>
-      </c>
-      <c r="H12" s="5">
-        <f>C12*G12</f>
+      <c r="G28" s="5">
+        <f>G29</f>
+        <v>100</v>
+      </c>
+      <c r="H28" s="5">
+        <f>C28*G28</f>
         <v>1196.293449401855</v>
       </c>
-      <c r="I12" s="5">
-        <f>H12-H$13</f>
+      <c r="I28" s="5">
+        <f t="shared" si="5"/>
         <v>13.945102691649936</v>
       </c>
-      <c r="J12" s="3">
-        <f>F12+I12</f>
+      <c r="J28" s="3">
+        <f>F28+I28</f>
         <v>-24.055004119874411</v>
       </c>
-      <c r="K12" s="4">
-        <f>J12/H$13</f>
+      <c r="K28" s="4">
+        <f t="shared" si="7"/>
         <v>-2.0345107418474125E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B29">
         <v>31.469999313354489</v>
       </c>
-      <c r="C13">
+      <c r="C29">
         <v>11.823483467102051</v>
       </c>
-      <c r="D13" s="5">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <f>B13*D13</f>
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5">
+        <f>B29*D29</f>
         <v>3146.9999313354488</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>100</v>
-      </c>
-      <c r="H13" s="5">
-        <f>C13*G13</f>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>100</v>
+      </c>
+      <c r="H29" s="5">
+        <f>C29*G29</f>
         <v>1182.3483467102051</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F12 I3:K12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F19:F28 I19:K28">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF833FA-8919-41EF-BBBA-87679081B3AD}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="6.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="8"/>
+    <col min="13" max="13" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>23.270000457763668</v>
+      </c>
+      <c r="C3">
+        <v>8.4708347320556641</v>
+      </c>
+      <c r="D3" s="8">
+        <v>100</v>
+      </c>
+      <c r="E3" s="12">
+        <f>B3*D3</f>
+        <v>2327.0000457763667</v>
+      </c>
+      <c r="G3" s="8">
+        <v>100</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C3*G3</f>
+        <v>847.08347320556641</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="C4">
+        <v>8.4009933471679688</v>
+      </c>
+      <c r="D4" s="8">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E5" si="0">B4*D4</f>
+        <v>2354.9999237060551</v>
+      </c>
+      <c r="F4" s="12">
+        <f>E4-E$3</f>
+        <v>27.999877929688409</v>
+      </c>
+      <c r="G4" s="8">
+        <f>G3</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H5" si="1">C4*G4</f>
+        <v>840.09933471679688</v>
+      </c>
+      <c r="I4" s="13">
+        <f>H$3-H4</f>
+        <v>6.9841384887695313</v>
+      </c>
+      <c r="J4" s="13">
+        <f>F4+I4</f>
+        <v>34.984016418457941</v>
+      </c>
+      <c r="K4" s="10">
+        <f>J4/E$3</f>
+        <v>1.5033956050819964E-2</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>22.85000038146973</v>
+      </c>
+      <c r="C5">
+        <v>8.1615352630615217</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5" si="2">D4</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>2285.0000381469731</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F17" si="3">E5-E$3</f>
+        <v>-42.000007629393622</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5" si="4">G4</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>816.15352630615212</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I17" si="5">H$3-H5</f>
+        <v>30.92994689941429</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5" si="6">F5+I5</f>
+        <v>-11.070060729979332</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5" si="7">J5/E$3</f>
+        <v>-4.7572241135414254E-3</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>23.110000610351559</v>
+      </c>
+      <c r="C6">
+        <v>8.2014446258544922</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D17" si="8">D5</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E17" si="9">B6*D6</f>
+        <v>2311.0000610351558</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>-15.999984741210938</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G17" si="10">G5</f>
+        <v>100</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H17" si="11">C6*G6</f>
+        <v>820.14446258544922</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="5"/>
+        <v>26.939010620117188</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" ref="J6:J17" si="12">F6+I6</f>
+        <v>10.93902587890625</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K6:K17" si="13">J6/E$3</f>
+        <v>4.7009134781759825E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>23.70999908447266</v>
+      </c>
+      <c r="C7">
+        <v>8.500767707824707</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="9"/>
+        <v>2370.9999084472661</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>43.999862670899347</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="11"/>
+        <v>850.0767707824707</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.9932975769042969</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="12"/>
+        <v>41.00656509399505</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="13"/>
+        <v>1.7622073178908709E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>22.590000152587891</v>
+      </c>
+      <c r="C8">
+        <v>8.1216259002685547</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="9"/>
+        <v>2259.0000152587891</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>-68.00003051757767</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="11"/>
+        <v>812.16259002685547</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="5"/>
+        <v>34.920883178710938</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="12"/>
+        <v>-33.079147338866733</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="13"/>
+        <v>-1.4215361705259614E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>23.5</v>
+      </c>
+      <c r="C9">
+        <v>8.5207223892211914</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="9"/>
+        <v>2350</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>22.999954223633267</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="11"/>
+        <v>852.07223892211914</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="5"/>
+        <v>-4.9887657165527344</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="12"/>
+        <v>18.011188507080533</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="13"/>
+        <v>7.7400894511247785E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>23.479999542236332</v>
+      </c>
+      <c r="C10">
+        <v>8.2213993072509783</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="9"/>
+        <v>2347.9999542236333</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>20.999908447266534</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="11"/>
+        <v>822.13993072509788</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="5"/>
+        <v>24.943542480468523</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="12"/>
+        <v>45.943450927735057</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="13"/>
+        <v>1.9743639889962594E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>23.530000686645511</v>
+      </c>
+      <c r="C11">
+        <v>8.2313766479492188</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="9"/>
+        <v>2353.0000686645512</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>26.000022888184503</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="11"/>
+        <v>823.13766479492188</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="5"/>
+        <v>23.945808410644531</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="12"/>
+        <v>49.945831298829034</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="13"/>
+        <v>2.1463614231329076E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>24.14999961853027</v>
+      </c>
+      <c r="C12">
+        <v>8.6703834533691388</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="9"/>
+        <v>2414.9999618530269</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>87.999916076660156</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="11"/>
+        <v>867.03834533691384</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="5"/>
+        <v>-19.954872131347429</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="12"/>
+        <v>68.045043945312727</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="13"/>
+        <v>2.9241530986996854E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>23.510000228881839</v>
+      </c>
+      <c r="C13">
+        <v>8.8399991989135742</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="9"/>
+        <v>2351.000022888184</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>23.999977111817316</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="11"/>
+        <v>883.99991989135742</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="5"/>
+        <v>-36.916446685791016</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="12"/>
+        <v>-12.9164695739737</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="13"/>
+        <v>-5.5506958830610267E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C14">
+        <v>9.219141960144043</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="9"/>
+        <v>2464.9999618530269</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>137.99991607666016</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="11"/>
+        <v>921.9141960144043</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="5"/>
+        <v>-74.830722808837891</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="12"/>
+        <v>63.169193267822266</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="13"/>
+        <v>2.714619339285267E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>25.180000305175781</v>
+      </c>
+      <c r="C15">
+        <v>8.8998641967773438</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="9"/>
+        <v>2518.0000305175781</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>190.99998474121139</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="11"/>
+        <v>889.98641967773438</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="5"/>
+        <v>-42.902946472167969</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="12"/>
+        <v>148.09703826904342</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="13"/>
+        <v>6.3642903032102516E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="C16">
+        <v>9.0894355773925781</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="9"/>
+        <v>2529.9999237060551</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>202.99987792968841</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="11"/>
+        <v>908.94355773925781</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="5"/>
+        <v>-61.860084533691406</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="12"/>
+        <v>141.139793395997</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="13"/>
+        <v>6.065311156833602E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>25.610000610351559</v>
+      </c>
+      <c r="C17">
+        <v>8.9796838760375977</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="9"/>
+        <v>2561.0000610351558</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>234.00001525878906</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="11"/>
+        <v>897.96838760375977</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="5"/>
+        <v>-50.884914398193359</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="12"/>
+        <v>183.1151008605957</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="13"/>
+        <v>7.869149001219819E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:F17 I4:K17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datasets/backtest/simu.xlsx
+++ b/datasets/backtest/simu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trades\pairs_trading_b3\datasets\backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465AE49-3954-4C4D-94FF-1457A1232719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E030ECA-242A-4107-A103-D21C49397657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="-120" windowWidth="11805" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="0" windowWidth="11805" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>BBSE3</t>
   </si>
@@ -79,57 +79,6 @@
     <t>2020-02-27</t>
   </si>
   <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Lot</t>
   </si>
   <si>
@@ -143,6 +92,21 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
   </si>
 </sst>
 </file>
@@ -1238,17 +1202,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF833FA-8919-41EF-BBBA-87679081B3AD}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="8"/>
@@ -1261,12 +1225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B1" s="7"/>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
@@ -1282,60 +1241,60 @@
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>23.270000457763668</v>
-      </c>
-      <c r="C3">
-        <v>8.4708347320556641</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.80000019073487</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17.610000610351559</v>
       </c>
       <c r="D3" s="8">
         <v>100</v>
       </c>
       <c r="E3" s="12">
         <f>B3*D3</f>
-        <v>2327.0000457763667</v>
+        <v>1180.000019073487</v>
       </c>
       <c r="G3" s="8">
         <v>100</v>
       </c>
       <c r="H3" s="12">
         <f>C3*G3</f>
-        <v>847.08347320556641</v>
+        <v>1761.0000610351558</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -1343,13 +1302,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>23.54999923706055</v>
-      </c>
-      <c r="C4">
-        <v>8.4009933471679688</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.069999694824221</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.489999771118161</v>
       </c>
       <c r="D4" s="8">
         <f>D3</f>
@@ -1357,11 +1316,11 @@
       </c>
       <c r="E4" s="12">
         <f t="shared" ref="E4:E5" si="0">B4*D4</f>
-        <v>2354.9999237060551</v>
+        <v>1006.9999694824221</v>
       </c>
       <c r="F4" s="12">
         <f>E4-E$3</f>
-        <v>27.999877929688409</v>
+        <v>-173.00004959106491</v>
       </c>
       <c r="G4" s="8">
         <f>G3</f>
@@ -1369,19 +1328,19 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4:H5" si="1">C4*G4</f>
-        <v>840.09933471679688</v>
+        <v>1748.999977111816</v>
       </c>
       <c r="I4" s="13">
         <f>H$3-H4</f>
-        <v>6.9841384887695313</v>
+        <v>12.000083923339844</v>
       </c>
       <c r="J4" s="13">
         <f>F4+I4</f>
-        <v>34.984016418457941</v>
+        <v>-160.99996566772506</v>
       </c>
       <c r="K4" s="10">
         <f>J4/E$3</f>
-        <v>1.5033956050819964E-2</v>
+        <v>-0.13644064666553066</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1389,13 +1348,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>22.85000038146973</v>
-      </c>
-      <c r="C5">
-        <v>8.1615352630615217</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11.39999961853027</v>
+      </c>
+      <c r="C5" s="3">
+        <v>19.29000091552734</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5" si="2">D4</f>
@@ -1403,11 +1362,11 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>2285.0000381469731</v>
+        <v>1139.9999618530269</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="F5:F17" si="3">E5-E$3</f>
-        <v>-42.000007629393622</v>
+        <f t="shared" ref="F5:F7" si="3">E5-E$3</f>
+        <v>-40.000057220460121</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" ref="G5" si="4">G4</f>
@@ -1415,19 +1374,19 @@
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>816.15352630615212</v>
+        <v>1929.0000915527339</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" ref="I5:I17" si="5">H$3-H5</f>
-        <v>30.92994689941429</v>
+        <f t="shared" ref="I5:I7" si="5">H$3-H5</f>
+        <v>-168.00003051757813</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" ref="J5" si="6">F5+I5</f>
-        <v>-11.070060729979332</v>
+        <v>-208.00008773803825</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5" si="7">J5/E$3</f>
-        <v>-4.7572241135414254E-3</v>
+        <v>-0.17627125794570397</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1435,56 +1394,56 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>23.110000610351559</v>
-      </c>
-      <c r="C6">
-        <v>8.2014446258544922</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.02000045776367</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20.030000686645511</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" ref="D6:D17" si="8">D5</f>
+        <f t="shared" ref="D6:D7" si="8">D5</f>
         <v>100</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" ref="E6:E17" si="9">B6*D6</f>
-        <v>2311.0000610351558</v>
+        <f t="shared" ref="E6:E7" si="9">B6*D6</f>
+        <v>1502.000045776367</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="3"/>
-        <v>-15.999984741210938</v>
+        <v>322.00002670287995</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G17" si="10">G5</f>
+        <f t="shared" ref="G6:G7" si="10">G5</f>
         <v>100</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" ref="H6:H17" si="11">C6*G6</f>
-        <v>820.14446258544922</v>
+        <f t="shared" ref="H6:H7" si="11">C6*G6</f>
+        <v>2003.0000686645512</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="5"/>
-        <v>26.939010620117188</v>
+        <v>-242.00000762939544</v>
       </c>
       <c r="J6" s="13">
-        <f t="shared" ref="J6:J17" si="12">F6+I6</f>
-        <v>10.93902587890625</v>
+        <f t="shared" ref="J6:J7" si="12">F6+I6</f>
+        <v>80.000019073484509</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K17" si="13">J6/E$3</f>
-        <v>4.7009134781759825E-3</v>
+        <f t="shared" ref="K6:K7" si="13">J6/E$3</f>
+        <v>6.779662523759869E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>23.70999908447266</v>
-      </c>
-      <c r="C7">
-        <v>8.500767707824707</v>
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19.229999542236332</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20.85000038146973</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="8"/>
@@ -1492,11 +1451,11 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" si="9"/>
-        <v>2370.9999084472661</v>
+        <v>1922.9999542236333</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="3"/>
-        <v>43.999862670899347</v>
+        <v>742.99993515014626</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="10"/>
@@ -1504,449 +1463,19 @@
       </c>
       <c r="H7" s="12">
         <f t="shared" si="11"/>
-        <v>850.0767707824707</v>
+        <v>2085.0000381469731</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="5"/>
-        <v>-2.9932975769042969</v>
+        <v>-323.99997711181732</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="12"/>
-        <v>41.00656509399505</v>
+        <v>418.99995803832894</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="13"/>
-        <v>1.7622073178908709E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>22.590000152587891</v>
-      </c>
-      <c r="C8">
-        <v>8.1216259002685547</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="9"/>
-        <v>2259.0000152587891</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>-68.00003051757767</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="11"/>
-        <v>812.16259002685547</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="5"/>
-        <v>34.920883178710938</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="12"/>
-        <v>-33.079147338866733</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="13"/>
-        <v>-1.4215361705259614E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>23.5</v>
-      </c>
-      <c r="C9">
-        <v>8.5207223892211914</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="9"/>
-        <v>2350</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>22.999954223633267</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="11"/>
-        <v>852.07223892211914</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="5"/>
-        <v>-4.9887657165527344</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="12"/>
-        <v>18.011188507080533</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="13"/>
-        <v>7.7400894511247785E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>23.479999542236332</v>
-      </c>
-      <c r="C10">
-        <v>8.2213993072509783</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" si="9"/>
-        <v>2347.9999542236333</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>20.999908447266534</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="11"/>
-        <v>822.13993072509788</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="5"/>
-        <v>24.943542480468523</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="12"/>
-        <v>45.943450927735057</v>
-      </c>
-      <c r="K10" s="10">
-        <f t="shared" si="13"/>
-        <v>1.9743639889962594E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>23.530000686645511</v>
-      </c>
-      <c r="C11">
-        <v>8.2313766479492188</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="9"/>
-        <v>2353.0000686645512</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>26.000022888184503</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="11"/>
-        <v>823.13766479492188</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="5"/>
-        <v>23.945808410644531</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="12"/>
-        <v>49.945831298829034</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="13"/>
-        <v>2.1463614231329076E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>24.14999961853027</v>
-      </c>
-      <c r="C12">
-        <v>8.6703834533691388</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="9"/>
-        <v>2414.9999618530269</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>87.999916076660156</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="11"/>
-        <v>867.03834533691384</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="5"/>
-        <v>-19.954872131347429</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="12"/>
-        <v>68.045043945312727</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="13"/>
-        <v>2.9241530986996854E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>23.510000228881839</v>
-      </c>
-      <c r="C13">
-        <v>8.8399991989135742</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="9"/>
-        <v>2351.000022888184</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>23.999977111817316</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="11"/>
-        <v>883.99991989135742</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="5"/>
-        <v>-36.916446685791016</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="12"/>
-        <v>-12.9164695739737</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="13"/>
-        <v>-5.5506958830610267E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>24.64999961853027</v>
-      </c>
-      <c r="C14">
-        <v>9.219141960144043</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="9"/>
-        <v>2464.9999618530269</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>137.99991607666016</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="11"/>
-        <v>921.9141960144043</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="5"/>
-        <v>-74.830722808837891</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="12"/>
-        <v>63.169193267822266</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="13"/>
-        <v>2.714619339285267E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>25.180000305175781</v>
-      </c>
-      <c r="C15">
-        <v>8.8998641967773438</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="9"/>
-        <v>2518.0000305175781</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>190.99998474121139</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="11"/>
-        <v>889.98641967773438</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="5"/>
-        <v>-42.902946472167969</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="12"/>
-        <v>148.09703826904342</v>
-      </c>
-      <c r="K15" s="10">
-        <f t="shared" si="13"/>
-        <v>6.3642903032102516E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>25.29999923706055</v>
-      </c>
-      <c r="C16">
-        <v>9.0894355773925781</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="9"/>
-        <v>2529.9999237060551</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>202.99987792968841</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="11"/>
-        <v>908.94355773925781</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="5"/>
-        <v>-61.860084533691406</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="12"/>
-        <v>141.139793395997</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="13"/>
-        <v>6.065311156833602E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>25.610000610351559</v>
-      </c>
-      <c r="C17">
-        <v>8.9796838760375977</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="9"/>
-        <v>2561.0000610351558</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>234.00001525878906</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="11"/>
-        <v>897.96838760375977</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="5"/>
-        <v>-50.884914398193359</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="12"/>
-        <v>183.1151008605957</v>
-      </c>
-      <c r="K17" s="10">
-        <f t="shared" si="13"/>
-        <v>7.869149001219819E-2</v>
+        <v>0.35508470446239443</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1483,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F17 I4:K17">
+  <conditionalFormatting sqref="F4:F7 I4:K7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
